--- a/write.xlsx
+++ b/write.xlsx
@@ -418,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>0</v>
+        <v>7,542.874</v>
       </c>
     </row>
     <row r="3">
@@ -426,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>75,706.504</v>
+        <v>48,573.195</v>
       </c>
     </row>
     <row r="4">
@@ -434,7 +434,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="str">
-        <v>156,984.748</v>
+        <v>137,514.398</v>
       </c>
     </row>
     <row r="5">
@@ -442,7 +442,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="str">
-        <v>0</v>
+        <v>9,770.48</v>
       </c>
     </row>
     <row r="6">
@@ -450,7 +450,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="str">
-        <v>0</v>
+        <v>5,968.577</v>
       </c>
     </row>
     <row r="7">
@@ -458,7 +458,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="str">
-        <v>19,953.842</v>
+        <v>17,548.308</v>
       </c>
     </row>
     <row r="8">
@@ -466,7 +466,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="str">
-        <v>763,536.156</v>
+        <v>585,585.087</v>
       </c>
     </row>
     <row r="9">
@@ -474,7 +474,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="str">
-        <v>0</v>
+        <v>5,912.802</v>
       </c>
     </row>
     <row r="10">
@@ -482,7 +482,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="str">
-        <v>192,027.098</v>
+        <v>486,844.611</v>
       </c>
     </row>
     <row r="11">
@@ -490,7 +490,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="str">
-        <v>90,171.944</v>
+        <v>54,948.262</v>
       </c>
     </row>
     <row r="12">
@@ -498,7 +498,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="str">
-        <v>126,802.613</v>
+        <v>191,986.461</v>
       </c>
     </row>
     <row r="13">
@@ -506,7 +506,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="str">
-        <v>46,842.76</v>
+        <v>37,301.058</v>
       </c>
     </row>
     <row r="14">
@@ -514,7 +514,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="str">
-        <v>0</v>
+        <v>12,311.899</v>
       </c>
     </row>
     <row r="15">
@@ -522,7 +522,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="str">
-        <v>32,096.345</v>
+        <v>57,869.463</v>
       </c>
     </row>
     <row r="16">
@@ -530,7 +530,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="str">
-        <v>0</v>
+        <v>12,301.406</v>
       </c>
     </row>
     <row r="17">
@@ -538,7 +538,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="str">
-        <v>225,403.648</v>
+        <v>361,538.233</v>
       </c>
     </row>
     <row r="18">
@@ -546,7 +546,7 @@
         <v>24</v>
       </c>
       <c r="B18" t="str">
-        <v>0</v>
+        <v>24,029.554</v>
       </c>
     </row>
     <row r="19">
@@ -554,7 +554,7 @@
         <v>25</v>
       </c>
       <c r="B19" t="str">
-        <v>0</v>
+        <v>6,252.258</v>
       </c>
     </row>
     <row r="20">
@@ -562,7 +562,7 @@
         <v>26</v>
       </c>
       <c r="B20" t="str">
-        <v>62,198.879</v>
+        <v>98,979.358</v>
       </c>
     </row>
     <row r="21">
@@ -578,7 +578,7 @@
         <v>28</v>
       </c>
       <c r="B22" t="str">
-        <v>382,818.327</v>
+        <v>332,160.946</v>
       </c>
     </row>
     <row r="23">
@@ -586,7 +586,7 @@
         <v>30</v>
       </c>
       <c r="B23" t="str">
-        <v>0</v>
+        <v>10,437.251</v>
       </c>
     </row>
     <row r="24">
@@ -602,7 +602,7 @@
         <v>32</v>
       </c>
       <c r="B25" t="str">
-        <v>859,203.262</v>
+        <v>632,557.275</v>
       </c>
     </row>
     <row r="26">
@@ -610,7 +610,7 @@
         <v>33</v>
       </c>
       <c r="B26" t="str">
-        <v>272,755.417</v>
+        <v>250,070.756</v>
       </c>
     </row>
     <row r="27">
@@ -618,7 +618,7 @@
         <v>34</v>
       </c>
       <c r="B27" t="str">
-        <v>303,238.345</v>
+        <v>754,745.283</v>
       </c>
     </row>
     <row r="28">
@@ -626,7 +626,7 @@
         <v>36</v>
       </c>
       <c r="B28" t="str">
-        <v>0</v>
+        <v>7,035.685</v>
       </c>
     </row>
     <row r="29">
@@ -634,7 +634,7 @@
         <v>37</v>
       </c>
       <c r="B29" t="str">
-        <v>150,614.046</v>
+        <v>295,456.471</v>
       </c>
     </row>
     <row r="30">
@@ -642,7 +642,7 @@
         <v>38</v>
       </c>
       <c r="B30" t="str">
-        <v>71,228.302</v>
+        <v>38,612.877</v>
       </c>
     </row>
     <row r="31">
@@ -650,7 +650,7 @@
         <v>39</v>
       </c>
       <c r="B31" t="str">
-        <v>0</v>
+        <v>9,317.851</v>
       </c>
     </row>
     <row r="32">
@@ -658,7 +658,7 @@
         <v>41</v>
       </c>
       <c r="B32" t="str">
-        <v>0</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="33">
@@ -666,7 +666,7 @@
         <v>42</v>
       </c>
       <c r="B33" t="str">
-        <v>0</v>
+        <v>12,568.916</v>
       </c>
     </row>
     <row r="34">
@@ -674,7 +674,7 @@
         <v>43</v>
       </c>
       <c r="B34" t="str">
-        <v>0</v>
+        <v>9,819.54</v>
       </c>
     </row>
     <row r="35">
@@ -682,7 +682,7 @@
         <v>44</v>
       </c>
       <c r="B35" t="str">
-        <v>61,124.309</v>
+        <v>46,179.798</v>
       </c>
     </row>
     <row r="36">
@@ -690,7 +690,7 @@
         <v>45</v>
       </c>
       <c r="B36" t="str">
-        <v>13,209.547</v>
+        <v>17,505.913</v>
       </c>
     </row>
     <row r="37">
@@ -698,7 +698,7 @@
         <v>46</v>
       </c>
       <c r="B37" t="str">
-        <v>0</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="38">
@@ -714,7 +714,7 @@
         <v>48</v>
       </c>
       <c r="B39" t="str">
-        <v>260,848.723</v>
+        <v>362,330.778</v>
       </c>
     </row>
     <row r="40">
@@ -722,7 +722,7 @@
         <v>50</v>
       </c>
       <c r="B40" t="str">
-        <v>0</v>
+        <v>14,550.311</v>
       </c>
     </row>
     <row r="41">
@@ -730,7 +730,7 @@
         <v>71</v>
       </c>
       <c r="B41" t="str">
-        <v>32,749.091</v>
+        <v>18,142.164</v>
       </c>
     </row>
     <row r="42">
@@ -738,7 +738,7 @@
         <v>72</v>
       </c>
       <c r="B42" t="str">
-        <v>754,408.873</v>
+        <v>650,287.628</v>
       </c>
     </row>
     <row r="43">
@@ -746,7 +746,7 @@
         <v>73</v>
       </c>
       <c r="B43" t="str">
-        <v>110,732.437</v>
+        <v>234,053.746</v>
       </c>
     </row>
     <row r="44">
@@ -754,7 +754,7 @@
         <v>74</v>
       </c>
       <c r="B44" t="str">
-        <v>371,521.909</v>
+        <v>343,709.128</v>
       </c>
     </row>
     <row r="45">
@@ -762,7 +762,7 @@
         <v>75</v>
       </c>
       <c r="B45" t="str">
-        <v>306,582.592</v>
+        <v>268,213.498</v>
       </c>
     </row>
     <row r="46">
@@ -770,7 +770,7 @@
         <v>76</v>
       </c>
       <c r="B46" t="str">
-        <v>558,662.976</v>
+        <v>396,370.709</v>
       </c>
     </row>
     <row r="47">
@@ -778,7 +778,7 @@
         <v>77</v>
       </c>
       <c r="B47" t="str">
-        <v>0</v>
+        <v>8,216.227</v>
       </c>
     </row>
     <row r="48">
@@ -786,7 +786,7 @@
         <v>79</v>
       </c>
       <c r="B48" t="str">
-        <v>11,178.471</v>
+        <v>8,267.312</v>
       </c>
     </row>
     <row r="49">
@@ -794,7 +794,7 @@
         <v>80</v>
       </c>
       <c r="B49" t="str">
-        <v>0</v>
+        <v>11,695.094</v>
       </c>
     </row>
     <row r="50">
@@ -802,7 +802,7 @@
         <v>81</v>
       </c>
       <c r="B50" t="str">
-        <v>249,621.535</v>
+        <v>351,215.321</v>
       </c>
     </row>
     <row r="51">
@@ -810,7 +810,7 @@
         <v>82</v>
       </c>
       <c r="B51" t="str">
-        <v>0</v>
+        <v>13,186.757</v>
       </c>
     </row>
     <row r="52">
@@ -818,7 +818,7 @@
         <v>84</v>
       </c>
       <c r="B52" t="str">
-        <v>0</v>
+        <v>16,623.078</v>
       </c>
     </row>
     <row r="53">
@@ -826,7 +826,7 @@
         <v>85</v>
       </c>
       <c r="B53" t="str">
-        <v>66,616.983</v>
+        <v>80,116.311</v>
       </c>
     </row>
     <row r="54">
@@ -842,7 +842,7 @@
         <v>87</v>
       </c>
       <c r="B55" t="str">
-        <v>150,553.029</v>
+        <v>103,534.206</v>
       </c>
     </row>
     <row r="56">
@@ -850,7 +850,7 @@
         <v>88</v>
       </c>
       <c r="B56" t="str">
-        <v>71,076.74</v>
+        <v>60,841.583</v>
       </c>
     </row>
     <row r="57">
@@ -858,7 +858,7 @@
         <v>90</v>
       </c>
       <c r="B57" t="str">
-        <v>134,158.883</v>
+        <v>246,210.111</v>
       </c>
     </row>
     <row r="58">
@@ -866,7 +866,7 @@
         <v>91</v>
       </c>
       <c r="B58" t="str">
-        <v>250,436.225</v>
+        <v>223,422.842</v>
       </c>
     </row>
     <row r="59">
@@ -874,7 +874,7 @@
         <v>92</v>
       </c>
       <c r="B59" t="str">
-        <v>0</v>
+        <v>8,086.106</v>
       </c>
     </row>
     <row r="60">
@@ -890,7 +890,7 @@
         <v>94</v>
       </c>
       <c r="B61" t="str">
-        <v>350,962.818</v>
+        <v>313,512.208</v>
       </c>
     </row>
     <row r="62">
@@ -898,7 +898,7 @@
         <v>95</v>
       </c>
       <c r="B62" t="str">
-        <v>0</v>
+        <v>9,797.104</v>
       </c>
     </row>
     <row r="63">
@@ -906,7 +906,7 @@
         <v>96</v>
       </c>
       <c r="B63" t="str">
-        <v>94,760.426</v>
+        <v>64,525.573</v>
       </c>
     </row>
     <row r="64">
@@ -914,7 +914,7 @@
         <v>97</v>
       </c>
       <c r="B64" t="str">
-        <v>53,271.911</v>
+        <v>39,756.904</v>
       </c>
     </row>
     <row r="65">
@@ -922,7 +922,7 @@
         <v>98</v>
       </c>
       <c r="B65" t="str">
-        <v>425,134.216</v>
+        <v>324,040.14</v>
       </c>
     </row>
     <row r="66">
@@ -930,7 +930,7 @@
         <v>99</v>
       </c>
       <c r="B66" t="str">
-        <v>126,595.791</v>
+        <v>123,192.806</v>
       </c>
     </row>
     <row r="67">
@@ -946,7 +946,7 @@
         <v>101</v>
       </c>
       <c r="B68" t="str">
-        <v>342,171.085</v>
+        <v>481,091.241</v>
       </c>
     </row>
     <row r="69">
@@ -954,7 +954,7 @@
         <v>102</v>
       </c>
       <c r="B69" t="str">
-        <v>103,171.054</v>
+        <v>48,864.913</v>
       </c>
     </row>
     <row r="70">
@@ -962,7 +962,7 @@
         <v>103</v>
       </c>
       <c r="B70" t="str">
-        <v>89,599.251</v>
+        <v>48,191.017</v>
       </c>
     </row>
     <row r="71">
@@ -970,7 +970,7 @@
         <v>104</v>
       </c>
       <c r="B71" t="str">
-        <v>0</v>
+        <v>13,897.927</v>
       </c>
     </row>
     <row r="72">
@@ -978,7 +978,7 @@
         <v>105</v>
       </c>
       <c r="B72" t="str">
-        <v>0</v>
+        <v>12,502.493</v>
       </c>
     </row>
     <row r="73">
@@ -986,7 +986,7 @@
         <v>106</v>
       </c>
       <c r="B73" t="str">
-        <v>78,835.276</v>
+        <v>67,528.567</v>
       </c>
     </row>
     <row r="74">
@@ -994,7 +994,7 @@
         <v>107</v>
       </c>
       <c r="B74" t="str">
-        <v>93,279.685</v>
+        <v>71,210.201</v>
       </c>
     </row>
     <row r="75">
@@ -1002,7 +1002,7 @@
         <v>108</v>
       </c>
       <c r="B75" t="str">
-        <v>65,751.811</v>
+        <v>61,080.559</v>
       </c>
     </row>
     <row r="76">
@@ -1010,7 +1010,7 @@
         <v>109</v>
       </c>
       <c r="B76" t="str">
-        <v>62,770.782</v>
+        <v>34,355.942</v>
       </c>
     </row>
     <row r="77">
@@ -1018,7 +1018,7 @@
         <v>110</v>
       </c>
       <c r="B77" t="str">
-        <v>43,006.135</v>
+        <v>41,573.713</v>
       </c>
     </row>
     <row r="78">
@@ -1034,7 +1034,7 @@
         <v>112</v>
       </c>
       <c r="B79" t="str">
-        <v>626,578.648</v>
+        <v>468,288.572</v>
       </c>
     </row>
     <row r="80">
@@ -1042,7 +1042,7 @@
         <v>113</v>
       </c>
       <c r="B80" t="str">
-        <v>83,898.166</v>
+        <v>63,718.762</v>
       </c>
     </row>
     <row r="81">
@@ -1050,7 +1050,7 @@
         <v>115</v>
       </c>
       <c r="B81" t="str">
-        <v>62,229.387</v>
+        <v>60,991.263</v>
       </c>
     </row>
     <row r="82">
@@ -1082,7 +1082,7 @@
         <v>119</v>
       </c>
       <c r="B85" t="str">
-        <v>143,661.788</v>
+        <v>115,888.39</v>
       </c>
     </row>
     <row r="86">
@@ -1098,7 +1098,7 @@
         <v>121</v>
       </c>
       <c r="B87" t="str">
-        <v>99,751.602</v>
+        <v>111,928.248</v>
       </c>
     </row>
     <row r="88">
@@ -1114,7 +1114,7 @@
         <v>123</v>
       </c>
       <c r="B89" t="str">
-        <v>0</v>
+        <v>8,416.917</v>
       </c>
     </row>
     <row r="90">
@@ -1122,7 +1122,7 @@
         <v>124</v>
       </c>
       <c r="B90" t="str">
-        <v>0</v>
+        <v>6,818.34</v>
       </c>
     </row>
     <row r="91">
@@ -1138,7 +1138,7 @@
         <v>126</v>
       </c>
       <c r="B92" t="str">
-        <v>24,234.663</v>
+        <v>22,642.838</v>
       </c>
     </row>
     <row r="93">
@@ -1146,7 +1146,7 @@
         <v>129</v>
       </c>
       <c r="B93" t="str">
-        <v>44,377.103</v>
+        <v>33,582.67</v>
       </c>
     </row>
     <row r="94">
@@ -1154,7 +1154,7 @@
         <v>130</v>
       </c>
       <c r="B94" t="str">
-        <v>70,318.225</v>
+        <v>58,198.15</v>
       </c>
     </row>
     <row r="95">
@@ -1162,7 +1162,7 @@
         <v>131</v>
       </c>
       <c r="B95" t="str">
-        <v>49,645.364</v>
+        <v>40,758.528</v>
       </c>
     </row>
     <row r="96">
@@ -1170,7 +1170,7 @@
         <v>132</v>
       </c>
       <c r="B96" t="str">
-        <v>118,910.451</v>
+        <v>99,365.205</v>
       </c>
     </row>
     <row r="97">
@@ -1178,7 +1178,7 @@
         <v>133</v>
       </c>
       <c r="B97" t="str">
-        <v>0</v>
+        <v>9,541.994</v>
       </c>
     </row>
     <row r="98">
@@ -1186,7 +1186,7 @@
         <v>134</v>
       </c>
       <c r="B98" t="str">
-        <v>77,184.496</v>
+        <v>64,903.815</v>
       </c>
     </row>
     <row r="99">
@@ -1194,7 +1194,7 @@
         <v>135</v>
       </c>
       <c r="B99" t="str">
-        <v>182,438.574</v>
+        <v>160,483.766</v>
       </c>
     </row>
     <row r="100">
@@ -1202,7 +1202,7 @@
         <v>136</v>
       </c>
       <c r="B100" t="str">
-        <v>92,383.734</v>
+        <v>75,076.26</v>
       </c>
     </row>
     <row r="101">
@@ -1210,7 +1210,7 @@
         <v>137</v>
       </c>
       <c r="B101" t="str">
-        <v>77,880.09</v>
+        <v>60,430.882</v>
       </c>
     </row>
     <row r="102">
@@ -1226,7 +1226,7 @@
         <v>139</v>
       </c>
       <c r="B103" t="str">
-        <v>50,517.443</v>
+        <v>32,285.568</v>
       </c>
     </row>
     <row r="104">
@@ -1234,7 +1234,7 @@
         <v>140</v>
       </c>
       <c r="B104" t="str">
-        <v>58,914.344</v>
+        <v>41,508.933</v>
       </c>
     </row>
     <row r="105">
@@ -1242,7 +1242,7 @@
         <v>142</v>
       </c>
       <c r="B105" t="str">
-        <v>69,324.542</v>
+        <v>49,895.279</v>
       </c>
     </row>
     <row r="106">
@@ -1250,7 +1250,7 @@
         <v>143</v>
       </c>
       <c r="B106" t="str">
-        <v>44,874.64</v>
+        <v>38,212.555</v>
       </c>
     </row>
     <row r="107">
@@ -1258,7 +1258,7 @@
         <v>144</v>
       </c>
       <c r="B107" t="str">
-        <v>0</v>
+        <v>25,588.238</v>
       </c>
     </row>
     <row r="108">
@@ -1266,7 +1266,7 @@
         <v>146</v>
       </c>
       <c r="B108" t="str">
-        <v>139,027.003</v>
+        <v>108,675.634</v>
       </c>
     </row>
     <row r="109">
@@ -1274,7 +1274,7 @@
         <v>147</v>
       </c>
       <c r="B109" t="str">
-        <v>116,672.872</v>
+        <v>85,647.358</v>
       </c>
     </row>
     <row r="110">
@@ -1282,7 +1282,7 @@
         <v>148</v>
       </c>
       <c r="B110" t="str">
-        <v>108,426.443</v>
+        <v>68,560.404</v>
       </c>
     </row>
     <row r="111">
@@ -1290,7 +1290,7 @@
         <v>149</v>
       </c>
       <c r="B111" t="str">
-        <v>56,148.659</v>
+        <v>46,826.299</v>
       </c>
     </row>
     <row r="112">
@@ -1298,7 +1298,7 @@
         <v>150</v>
       </c>
       <c r="B112" t="str">
-        <v>101,215.379</v>
+        <v>75,889.982</v>
       </c>
     </row>
   </sheetData>

--- a/write.xlsx
+++ b/write.xlsx
@@ -32,11 +32,34 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="4">
+  <numFmts count="27">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="General_)"/>
+    <numFmt numFmtId="168" formatCode="#,###,###,###,###,###,###,###,###,###,###,###,###"/>
+    <numFmt numFmtId="169" formatCode="dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00########"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00%"/>
+    <numFmt numFmtId="172" formatCode="\+* #,##0.00;[Red]\-* #,##0.00"/>
+    <numFmt numFmtId="173" formatCode="\+* #,##0;[Red]\-* #,##0"/>
+    <numFmt numFmtId="174" formatCode="\ * #,##0;[Red]\-* #,##0"/>
+    <numFmt numFmtId="175" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
+    <numFmt numFmtId="176" formatCode="#.00"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00;\-* #,##0.00;_-* &quot;-&quot;??;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="#."/>
+    <numFmt numFmtId="179" formatCode="d\ mmmm\ yyyy"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0.00\ _B_F_-;\-* #,##0.00\ _B_F_-;_-* &quot;-&quot;??\ _B_F_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="_ &quot;SFr.&quot;\ * #,##0_ ;_ &quot;SFr.&quot;\ * \-#,##0_ ;_ &quot;SFr.&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="182" formatCode="_ &quot;SFr.&quot;\ * #,##0.00_ ;_ &quot;SFr.&quot;\ * \-#,##0.00_ ;_ &quot;SFr.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="183" formatCode="dd\ mmm\ yyyy"/>
+    <numFmt numFmtId="184" formatCode="###,###.##"/>
+    <numFmt numFmtId="185" formatCode="_-&quot;L.&quot;\ * #,##0_-;\-&quot;L.&quot;\ * #,##0_-;_-&quot;L.&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="186" formatCode="&quot;Fr.&quot;\+* #,##0.00;[Red]&quot;Fr.&quot;\-* #,##0.00"/>
+    <numFmt numFmtId="187" formatCode="&quot;Fr.&quot;\+* #,##0;[Red]&quot;Fr.&quot;\-* #,##0"/>
+    <numFmt numFmtId="188" formatCode="&quot;Fr.&quot;\ * #,##0;[Red]&quot;Fr.&quot;\-* #,##0"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -400,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B151"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,7 +441,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>7,542.874</v>
+        <v>2,401.521</v>
       </c>
     </row>
     <row r="3">
@@ -426,884 +449,1196 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>48,573.195</v>
+        <v>32,525.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>137,514.398</v>
+        <v>652,351.045</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>9,770.48</v>
+        <v>236,698.529</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>5,968.577</v>
+        <v>8,507.793</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>17,548.308</v>
+        <v>455,515.28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>585,585.087</v>
+        <v>18,263.77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" t="str">
-        <v>5,912.802</v>
+        <v>341,013.559</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" t="str">
-        <v>486,844.611</v>
+        <v>7,666.723</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11" t="str">
-        <v>54,948.262</v>
+        <v>15,460.244</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B12" t="str">
-        <v>191,986.461</v>
+        <v>368,371.381</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B13" t="str">
-        <v>37,301.058</v>
+        <v>5,209.241</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B14" t="str">
-        <v>12,311.899</v>
+        <v>325,744.741</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B15" t="str">
-        <v>57,869.463</v>
+        <v>483,298.386</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B16" t="str">
-        <v>12,301.406</v>
+        <v>72,357.215</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B17" t="str">
-        <v>361,538.233</v>
+        <v>218,639.979</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B18" t="str">
-        <v>24,029.554</v>
+        <v>66,666.53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B19" t="str">
-        <v>6,252.258</v>
+        <v>18,414.884</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B20" t="str">
-        <v>98,979.358</v>
+        <v>53,137.226</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B21" t="str">
-        <v>0</v>
+        <v>90,606.133</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B22" t="str">
-        <v>332,160.946</v>
+        <v>11,058.545</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B23" t="str">
-        <v>10,437.251</v>
+        <v>432,424.447</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B24" t="str">
-        <v>0</v>
+        <v>48,774.907</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B25" t="str">
-        <v>632,557.275</v>
+        <v>12,436.902</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B26" t="str">
-        <v>250,070.756</v>
+        <v>4,762.426</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B27" t="str">
-        <v>754,745.283</v>
+        <v>81,642.901</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B28" t="str">
-        <v>7,035.685</v>
+        <v>5,149.751</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B29" t="str">
-        <v>295,456.471</v>
+        <v>206,699.806</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B30" t="str">
-        <v>38,612.877</v>
+        <v>8,647.473</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B31" t="str">
-        <v>9,317.851</v>
+        <v>4,940.415</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B32" t="str">
-        <v>NaN</v>
+        <v>3,174.467</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B33" t="str">
-        <v>12,568.916</v>
+        <v>182,127.919</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B34" t="str">
-        <v>9,819.54</v>
+        <v>83,787.868</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B35" t="str">
-        <v>46,179.798</v>
+        <v>343,742.133</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B36" t="str">
-        <v>17,505.913</v>
+        <v>3,297.747</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B37" t="str">
-        <v>NaN</v>
+        <v>4,953.957</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B38" t="str">
-        <v>28,307.404</v>
+        <v>148,983.802</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B39" t="str">
-        <v>362,330.778</v>
+        <v>33,543.695</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B40" t="str">
-        <v>14,550.311</v>
+        <v>3,217.121</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="B41" t="str">
-        <v>18,142.164</v>
+        <v>2,655.183</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="B42" t="str">
-        <v>650,287.628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B43" t="str">
-        <v>234,053.746</v>
+        <v>2,800.829</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B44" t="str">
-        <v>343,709.128</v>
+        <v>5,513.617</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="B45" t="str">
-        <v>268,213.498</v>
+        <v>32,516.058</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="B46" t="str">
-        <v>396,370.709</v>
+        <v>3,094.673</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B47" t="str">
-        <v>8,216.227</v>
+        <v>425,385.675</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="B48" t="str">
-        <v>8,267.312</v>
+        <v>28,307.404</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B49" t="str">
-        <v>11,695.094</v>
+        <v>313,695.787</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="B50" t="str">
-        <v>351,215.321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="B51" t="str">
-        <v>13,186.757</v>
+        <v>17,752.731</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="B52" t="str">
-        <v>16,623.078</v>
+        <v>29,073.352</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B53" t="str">
-        <v>80,116.311</v>
+        <v>13,501.837</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="B54" t="str">
-        <v>0</v>
+        <v>5,755.098</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="B55" t="str">
-        <v>103,534.206</v>
+        <v>6,696.156</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="B56" t="str">
-        <v>60,841.583</v>
+        <v>11,839.347</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B57" t="str">
-        <v>246,210.111</v>
+        <v>273,563.655</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="B58" t="str">
-        <v>223,422.842</v>
+        <v>25,959.513</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="B59" t="str">
-        <v>8,086.106</v>
+        <v>6,504.476</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="B60" t="str">
-        <v>0</v>
+        <v>5,178.696</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="B61" t="str">
-        <v>313,512.208</v>
+        <v>84,295.693</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B62" t="str">
-        <v>9,797.104</v>
+        <v>137,157.956</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="B63" t="str">
-        <v>64,525.573</v>
+        <v>6,788.886</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B64" t="str">
-        <v>39,756.904</v>
+        <v>5,012.715</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="B65" t="str">
-        <v>324,040.14</v>
+        <v>464,188.725</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="B66" t="str">
-        <v>123,192.806</v>
+        <v>361,045.987</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="B67" t="str">
-        <v>0</v>
+        <v>14,950.361</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="B68" t="str">
-        <v>481,091.241</v>
+        <v>123,924.823</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="B69" t="str">
-        <v>48,864.913</v>
+        <v>63,919.876</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="B70" t="str">
-        <v>48,191.017</v>
+        <v>327,063.662</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="B71" t="str">
-        <v>13,897.927</v>
+        <v>12,113.402</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B72" t="str">
-        <v>12,502.493</v>
+        <v>29,321.888</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="B73" t="str">
-        <v>67,528.567</v>
+        <v>640,437.743</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="B74" t="str">
-        <v>71,210.201</v>
+        <v>199,021.49</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="B75" t="str">
-        <v>61,080.559</v>
+        <v>311,492.536</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="B76" t="str">
-        <v>34,355.942</v>
+        <v>229,539.813</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="B77" t="str">
-        <v>41,573.713</v>
+        <v>251,629.219</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="B78" t="str">
-        <v>0</v>
+        <v>8,887.108</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="B79" t="str">
-        <v>468,288.572</v>
+        <v>15,032.189</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="B80" t="str">
-        <v>63,718.762</v>
+        <v>17,671.671</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="B81" t="str">
-        <v>60,991.263</v>
+        <v>17,492.331</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="B82" t="str">
-        <v>0</v>
+        <v>236,626.595</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="B83" t="str">
-        <v>0</v>
+        <v>15,298.111</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="B84" t="str">
-        <v>0</v>
+        <v>144,746.061</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="B85" t="str">
-        <v>115,888.39</v>
+        <v>11,704.62</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="B86" t="str">
-        <v>0</v>
+        <v>52,933.93</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="B87" t="str">
-        <v>111,928.248</v>
+        <v>10,543.92</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="B88" t="str">
-        <v>0</v>
+        <v>56,667.19</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="B89" t="str">
-        <v>8,416.917</v>
+        <v>47,875.879</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="B90" t="str">
-        <v>6,818.34</v>
+        <v>325,278.367</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="B91" t="str">
-        <v>0</v>
+        <v>101,533.946</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="B92" t="str">
-        <v>22,642.838</v>
+        <v>81,492.93</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="B93" t="str">
-        <v>33,582.67</v>
+        <v>6,076.791</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="B94" t="str">
-        <v>58,198.15</v>
+        <v>4,758.795</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="B95" t="str">
-        <v>40,758.528</v>
+        <v>212,374.103</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="B96" t="str">
-        <v>99,365.205</v>
+        <v>5,129.12</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="B97" t="str">
-        <v>9,541.994</v>
+        <v>24,818.993</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="B98" t="str">
-        <v>64,903.815</v>
+        <v>14,688.194</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="B99" t="str">
-        <v>160,483.766</v>
+        <v>189,179.641</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="B100" t="str">
-        <v>75,076.26</v>
+        <v>348,102.187</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="B101" t="str">
-        <v>60,430.882</v>
+        <v>28,973.151</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="B102" t="str">
-        <v>0</v>
+        <v>194,425.187</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="B103" t="str">
-        <v>32,285.568</v>
+        <v>17,855.556</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="B104" t="str">
-        <v>41,508.933</v>
+        <v>14,904.25</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="B105" t="str">
-        <v>49,895.279</v>
+        <v>3,664.719</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="B106" t="str">
-        <v>38,212.555</v>
+        <v>2,983.741</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="B107" t="str">
-        <v>25,588.238</v>
+        <v>25,763.617</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B108" t="str">
-        <v>108,675.634</v>
+        <v>12,096.611</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="B109" t="str">
-        <v>85,647.358</v>
+        <v>118,269.76</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="B110" t="str">
-        <v>68,560.404</v>
+        <v>22,564.771</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="B111" t="str">
-        <v>46,826.299</v>
+        <v>67,131.357</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="str">
+        <v>435,569.063</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="str">
+        <v>293,803.227</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="str">
+        <v>15,206.591</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="str">
+        <v>157,137.016</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="str">
+        <v>245,145.271</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="str">
+        <v>16,134.343</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="str">
+        <v>355,417.116</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="str">
+        <v>212,186.081</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="str">
+        <v>229,364.639</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="str">
+        <v>10,269.874</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="str">
+        <v>320,992.2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="str">
+        <v>427,774.669</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="str">
+        <v>1,522.772</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="str">
+        <v>2,402.358</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="str">
+        <v>2,883.718</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="str">
+        <v>47,311.36</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="str">
+        <v>25,144.634</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="str">
+        <v>46,378.077</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="str">
+        <v>46,294.756</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="str">
+        <v>52,918.259</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="str">
+        <v>27,942.266</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="str">
+        <v>37,228.243</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="str">
+        <v>7,268.261</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="str">
+        <v>51,727.984</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="str">
+        <v>46,524.377</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="str">
+        <v>46,064.765</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="str">
+        <v>69,729.941</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="str">
+        <v>15,578.064</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="str">
+        <v>21,384.797</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="str">
+        <v>30,023.525</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="str">
+        <v>21,085.385</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="str">
+        <v>47,435.954</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="str">
+        <v>20,062.982</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="str">
+        <v>9,842.211</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="str">
+        <v>27,886.118</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="str">
+        <v>28,794.066</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="str">
+        <v>25,214.872</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="str">
+        <v>32,407.935</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="str">
+        <v>17,880.3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
         <v>150</v>
       </c>
-      <c r="B112" t="str">
-        <v>75,889.982</v>
+      <c r="B151" t="str">
+        <v>17,803.142</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B112"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B151"/>
   </ignoredErrors>
 </worksheet>
 </file>